--- a/data/processed/unmatched_columns/unmatched_益阳医学高等专科学校.xlsx
+++ b/data/processed/unmatched_columns/unmatched_益阳医学高等专科学校.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>学费 
-（元/年）</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>_源文件</t>
         </is>
       </c>
@@ -475,10 +469,7 @@
           <t>护理</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -498,10 +489,7 @@
           <t>助产</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -521,10 +509,7 @@
           <t>健康管理</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -544,10 +529,7 @@
           <t>智慧健康养老服务与管理</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>3500</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -567,10 +549,7 @@
           <t>婴幼儿托育服务与管理</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>4200</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -590,10 +569,7 @@
           <t>药学</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -613,10 +589,7 @@
           <t>中药学</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -636,10 +609,7 @@
           <t>药品质量与安全</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>4600</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -659,10 +629,7 @@
           <t>药品生产技术</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>4600</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -682,10 +649,7 @@
           <t>药品经营与管理</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>4600</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -705,10 +669,7 @@
           <t>临床医学                （益阳市本土化乡村医生培养项目）</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -728,10 +689,7 @@
           <t>康复治疗技术</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -751,10 +709,7 @@
           <t>医学影像技术</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -774,10 +729,7 @@
           <t>眼视光技术</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -797,10 +749,7 @@
           <t>医学检验技术</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -820,10 +769,7 @@
           <t>食品检验检测技术</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>4600</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
@@ -843,10 +789,7 @@
           <t>口腔医学技术</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>5460</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>益阳医学高等专科学校.xlsx</t>
         </is>
